--- a/biology/Botanique/Rhododendron_hongkongense/Rhododendron_hongkongense.xlsx
+++ b/biology/Botanique/Rhododendron_hongkongense/Rhododendron_hongkongense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron hongkongense est une espèce d'arbuste de 1 à 2 m de haut appartenant à la famille des Ericaceae originaire de l'est de la Chine.
 Synonyme : Azalea myrtifolia Champ.
-Cette espèce, aux fleurs blanches légèrement teintées de rose, est rare dans son habitat naturel. Elle a été collectée pour la première fois dans l'île de Hong-Kong vers 1850 [1].
-La localité de Ma On Shan  (chinois: 馬鞍山), qui se trouve dans les Nouveaux Territoires, où cette plante subsiste a été classée comme Site d'intérêt scientifique particulier[1].
+Cette espèce, aux fleurs blanches légèrement teintées de rose, est rare dans son habitat naturel. Elle a été collectée pour la première fois dans l'île de Hong-Kong vers 1850 .
+La localité de Ma On Shan  (chinois: 馬鞍山), qui se trouve dans les Nouveaux Territoires, où cette plante subsiste a été classée comme Site d'intérêt scientifique particulier.
 </t>
         </is>
       </c>
